--- a/Assets/StreamingAssets/Q1C2.xlsx
+++ b/Assets/StreamingAssets/Q1C2.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFF6F83-BDC5-8D4D-AB9C-EBF792F90936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2C8882-E520-8147-86C2-F529D4F60A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7340" windowWidth="28100" windowHeight="15940" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28100" windowHeight="15940" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,10 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>End of story</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DialogueVocal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -147,6 +143,30 @@
   </si>
   <si>
     <t>appearAt</t>
+  </si>
+  <si>
+    <t>Goto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastBGImage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastBGM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastX1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastX2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoryScript2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -533,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EEC272-F350-D34D-A243-3179172F76FB}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -546,9 +566,11 @@
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
     <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="13" max="13" width="16.5" customWidth="1"/>
+    <col min="14" max="14" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17">
+    <row r="1" spans="1:16" ht="17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -585,98 +607,177 @@
       <c r="L1" t="s">
         <v>13</v>
       </c>
+      <c r="M1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" ht="17">
+    <row r="2" spans="1:16" ht="17">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="3" spans="1:12" ht="51">
+    <row r="3" spans="1:16" ht="51">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3">
         <v>-500</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="M3" t="str">
+        <f>IF(E2&lt;&gt;"",E2,M2)</f>
+        <v>Bridge-Connect</v>
+      </c>
+      <c r="N3" t="str">
+        <f>IF(F2&lt;&gt;"",F2,N2)</f>
+        <v>Waterfall</v>
+      </c>
+      <c r="O3">
+        <f>IF(H2&lt;&gt;"",H2,O2)</f>
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f>IF(K2&lt;&gt;"",K2,P2)</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="51">
+    <row r="4" spans="1:16" ht="51">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" ref="M4:M6" si="0">IF(E3&lt;&gt;"",E3,M3)</f>
+        <v>Bridge-Connect</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" ref="N4:N6" si="1">IF(F3&lt;&gt;"",F3,N3)</f>
+        <v>Waterfall</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O6" si="2">IF(H3&lt;&gt;"",H3,O3)</f>
+        <v>-500</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P6" si="3">IF(K3&lt;&gt;"",K3,P3)</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="51">
+    <row r="5" spans="1:16" ht="51">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
+      <c r="M5" t="str">
+        <f t="shared" si="0"/>
+        <v>Bridge-Connect</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="1"/>
+        <v>Waterfall</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="2"/>
+        <v>-500</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="17">
+    <row r="6" spans="1:16" ht="17">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="0"/>
+        <v>Bridge-Connect</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="1"/>
+        <v>Waterfall</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="2"/>
+        <v>-500</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
-      <c r="A10" t="s">
-        <v>16</v>
+    <row r="7" spans="1:16" ht="17">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/Q1C2.xlsx
+++ b/Assets/StreamingAssets/Q1C2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2C8882-E520-8147-86C2-F529D4F60A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7896589-1987-D746-8860-FBECA209C6E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28100" windowHeight="15940" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
@@ -110,10 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Waterfall</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Dee-Smile</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -166,6 +162,10 @@
   </si>
   <si>
     <t>StoryScript2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Happy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -556,7 +556,7 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -608,16 +608,16 @@
         <v>13</v>
       </c>
       <c r="M1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" t="s">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="17">
@@ -625,10 +625,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -637,7 +637,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="51">
@@ -645,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
@@ -654,13 +654,13 @@
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H3">
         <v>-500</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M3" t="str">
         <f>IF(E2&lt;&gt;"",E2,M2)</f>
@@ -668,7 +668,7 @@
       </c>
       <c r="N3" t="str">
         <f>IF(F2&lt;&gt;"",F2,N2)</f>
-        <v>Waterfall</v>
+        <v>Happy</v>
       </c>
       <c r="O3">
         <f>IF(H2&lt;&gt;"",H2,O2)</f>
@@ -684,7 +684,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -698,7 +698,7 @@
       </c>
       <c r="N4" t="str">
         <f t="shared" ref="N4:N6" si="1">IF(F3&lt;&gt;"",F3,N3)</f>
-        <v>Waterfall</v>
+        <v>Happy</v>
       </c>
       <c r="O4">
         <f t="shared" ref="O4:O6" si="2">IF(H3&lt;&gt;"",H3,O3)</f>
@@ -714,16 +714,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M5" t="str">
         <f t="shared" si="0"/>
@@ -731,7 +731,7 @@
       </c>
       <c r="N5" t="str">
         <f t="shared" si="1"/>
-        <v>Waterfall</v>
+        <v>Happy</v>
       </c>
       <c r="O5">
         <f t="shared" si="2"/>
@@ -747,7 +747,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -761,7 +761,7 @@
       </c>
       <c r="N6" t="str">
         <f t="shared" si="1"/>
-        <v>Waterfall</v>
+        <v>Happy</v>
       </c>
       <c r="O6">
         <f t="shared" si="2"/>
@@ -774,10 +774,10 @@
     </row>
     <row r="7" spans="1:16" ht="17">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/Q1C2.xlsx
+++ b/Assets/StreamingAssets/Q1C2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7896589-1987-D746-8860-FBECA209C6E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1644FC50-0788-3046-B663-CED1DE8E859A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28100" windowHeight="15940" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28100" windowHeight="15820" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -166,6 +166,14 @@
   </si>
   <si>
     <t>Happy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>History</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HistoryAction</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -553,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EEC272-F350-D34D-A243-3179172F76FB}">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -568,9 +576,10 @@
     <col min="5" max="5" width="22.33203125" customWidth="1"/>
     <col min="13" max="13" width="16.5" customWidth="1"/>
     <col min="14" max="14" width="15.33203125" customWidth="1"/>
+    <col min="18" max="18" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="17">
+    <row r="1" spans="1:18" ht="17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -619,8 +628,14 @@
       <c r="P1" t="s">
         <v>30</v>
       </c>
+      <c r="Q1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" ht="17">
+    <row r="2" spans="1:18" ht="17">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -640,7 +655,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="51">
+    <row r="3" spans="1:18" ht="51">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -679,7 +694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="51">
+    <row r="4" spans="1:18" ht="51">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -709,7 +724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="51">
+    <row r="5" spans="1:18" ht="51">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -742,7 +757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="17">
+    <row r="6" spans="1:18" ht="17">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -772,7 +787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="17">
+    <row r="7" spans="1:18" ht="17">
       <c r="A7" t="s">
         <v>26</v>
       </c>

--- a/Assets/StreamingAssets/Q1C2.xlsx
+++ b/Assets/StreamingAssets/Q1C2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1644FC50-0788-3046-B663-CED1DE8E859A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75171B81-BC65-F948-9F8D-62AB5E439020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28100" windowHeight="15820" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -174,6 +174,14 @@
   </si>
   <si>
     <t>HistoryAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SoundEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEAction</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -561,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EEC272-F350-D34D-A243-3179172F76FB}">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -579,7 +587,7 @@
     <col min="18" max="18" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="17">
+    <row r="1" spans="1:20" ht="17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -634,8 +642,14 @@
       <c r="R1" t="s">
         <v>34</v>
       </c>
+      <c r="S1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T1" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" ht="17">
+    <row r="2" spans="1:20" ht="17">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -655,7 +669,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="51">
+    <row r="3" spans="1:20" ht="51">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -694,7 +708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="51">
+    <row r="4" spans="1:20" ht="51">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -724,7 +738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="51">
+    <row r="5" spans="1:20" ht="51">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -757,7 +771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="17">
+    <row r="6" spans="1:20" ht="17">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -787,7 +801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="17">
+    <row r="7" spans="1:20" ht="17">
       <c r="A7" t="s">
         <v>26</v>
       </c>
